--- a/Projects/BCR/Distribucion de pruebas_BCR.xlsx
+++ b/Projects/BCR/Distribucion de pruebas_BCR.xlsx
@@ -1,45 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Avantica\Projects\BCR\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Escenario 1" sheetId="2" r:id="rId1"/>
+    <sheet name="Escenario 2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
-  <si>
-    <t>Las 3 descripciones del Dummy corresponden a “100 Exitosas”, “101 Rechazadas” y “102 Inestables”.  90-8-2 % para distribucion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escenario 1 </t>
-  </si>
-  <si>
-    <t>350 Empresas</t>
-  </si>
-  <si>
-    <t>15 transacciones por min</t>
-  </si>
-  <si>
-    <t>1 transaccion cada 4 segs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5250 transacciones por minuto y mantenerlo arriba 15-30 min </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>CCD</t>
   </si>
@@ -80,20 +56,50 @@
     <t>90% Exitosas</t>
   </si>
   <si>
-    <t>Loop</t>
-  </si>
-  <si>
-    <t>Ramp-up</t>
-  </si>
-  <si>
-    <t>15 trans min * 350 threads * 30min =</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Ramp-up (seg)</t>
+  </si>
+  <si>
+    <t>15 transacc x 350 empresas = 5250 transacc por minuto y sostenerlo entre 15 y 30 mins</t>
+  </si>
+  <si>
+    <t>350 empresas generando transacciones en lotes pequeños, cada empresa enviando 1 transaccion cada 4segs (ramp-up) (15 x min)</t>
+  </si>
+  <si>
+    <t>Cada Empresa (thread) enviará 1 transacción cada 4 segundos</t>
+  </si>
+  <si>
+    <t>Loop Count</t>
+  </si>
+  <si>
+    <t>Threads x Loop count</t>
+  </si>
+  <si>
+    <t>Empresa sube archivos de 400 transacciones  x archivo, 20 empresas lo hacen al mismo tiempo</t>
+  </si>
+  <si>
+    <t>1 Empresa(Thread) sube 1 archivo de 400 transacciones</t>
+  </si>
+  <si>
+    <t>8000tpm x 30min =</t>
+  </si>
+  <si>
+    <t>5250tpm x 30min =</t>
+  </si>
+  <si>
+    <t>Nota:</t>
+  </si>
+  <si>
+    <t>Si se envia 1 transaccion por thread, se necesita un loop de 450 para cumplir con la carga esperada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,14 +128,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -143,22 +158,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A23:G28" totalsRowCount="1">
-  <autoFilter ref="A23:G28"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Transacciones"/>
-    <tableColumn id="2" name="Threads"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A11:H16" totalsRowCount="1">
+  <autoFilter ref="A11:H16">
+    <filterColumn colId="7"/>
+  </autoFilter>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Transacciones" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Threads" totalsRowFunction="custom">
+      <totalsRowFormula>+B12+B13+B14+B15</totalsRowFormula>
+    </tableColumn>
     <tableColumn id="3" name="90% Exitosas" totalsRowFunction="custom">
-      <totalsRowFormula>+C24+C25+C26+C27</totalsRowFormula>
+      <totalsRowFormula>+C12+C13+C14+C15</totalsRowFormula>
     </tableColumn>
     <tableColumn id="4" name="8% Rechazadas" totalsRowFunction="custom">
-      <totalsRowFormula>+D24+D25+D26+D27</totalsRowFormula>
+      <totalsRowFormula>+D12+D13+D14+D15</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" name="2% Inestables" totalsRowFunction="custom">
-      <totalsRowFormula>+E24+E25+E26+E27</totalsRowFormula>
+      <totalsRowFormula>+E12+E13+E14+E15</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Loop"/>
-    <tableColumn id="7" name="Ramp-up"/>
+    <tableColumn id="6" name="Loop Count"/>
+    <tableColumn id="7" name="Ramp-up (seg)"/>
+    <tableColumn id="8" name="Threads x Loop count" totalsRowFunction="custom" dataDxfId="1">
+      <calculatedColumnFormula>Table14[[#This Row],[Threads]]*Table14[[#This Row],[Loop Count]]</calculatedColumnFormula>
+      <totalsRowFormula>+H12+H13+H14+H15</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A11:H16" totalsRowCount="1">
+  <autoFilter ref="A11:H16"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Transacciones" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Threads" totalsRowFunction="custom">
+      <totalsRowFormula>+B12+B13+B14+B15</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" name="90% Exitosas" totalsRowFunction="custom">
+      <totalsRowFormula>+C12+C13+C14+C15</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" name="8% Rechazadas" totalsRowFunction="custom">
+      <totalsRowFormula>+D12+D13+D14+D15</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" name="2% Inestables" totalsRowFunction="custom">
+      <totalsRowFormula>+E12+E13+E14+E15</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Loop Count"/>
+    <tableColumn id="7" name="Ramp-up (seg)"/>
+    <tableColumn id="8" name="Threads x Loop count" totalsRowFunction="custom" dataDxfId="0">
+      <calculatedColumnFormula>Table145[[#This Row],[Threads]]*Table145[[#This Row],[Loop Count]]</calculatedColumnFormula>
+      <totalsRowFormula>+H12+H13+H14+H15</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -207,7 +258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,10 +290,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,7 +324,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,241 +499,248 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>157500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C5">
+        <v>141750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="C6">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C7">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
       </c>
       <c r="B12">
         <v>87</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>35235</v>
+      </c>
+      <c r="D12">
+        <v>3132</v>
+      </c>
+      <c r="E12">
+        <v>783</v>
+      </c>
+      <c r="F12">
+        <v>450</v>
+      </c>
+      <c r="G12">
+        <v>447</v>
+      </c>
+      <c r="H12" s="2">
+        <f>Table14[[#This Row],[Threads]]*Table14[[#This Row],[Loop Count]]</f>
+        <v>39150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B13">
+        <v>87</v>
+      </c>
+      <c r="C13">
+        <v>35235</v>
+      </c>
+      <c r="D13">
+        <v>3132</v>
+      </c>
+      <c r="E13">
+        <v>783</v>
+      </c>
+      <c r="F13">
+        <v>450</v>
+      </c>
+      <c r="G13">
+        <v>447</v>
+      </c>
+      <c r="H13" s="2">
+        <f>Table14[[#This Row],[Threads]]*Table14[[#This Row],[Loop Count]]</f>
+        <v>39150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>87</v>
+      </c>
+      <c r="C14">
+        <v>35235</v>
+      </c>
+      <c r="D14">
+        <v>3132</v>
+      </c>
+      <c r="E14">
+        <v>783</v>
+      </c>
+      <c r="F14">
+        <v>450</v>
+      </c>
+      <c r="G14">
+        <v>447</v>
+      </c>
+      <c r="H14" s="2">
+        <f>Table14[[#This Row],[Threads]]*Table14[[#This Row],[Loop Count]]</f>
+        <v>39150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
         <v>89</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
+      <c r="C15">
+        <v>36045</v>
       </c>
       <c r="D15">
-        <v>157500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3204</v>
+      </c>
+      <c r="E15">
+        <v>801</v>
+      </c>
+      <c r="F15">
+        <v>450</v>
+      </c>
+      <c r="G15">
+        <v>457</v>
+      </c>
+      <c r="H15" s="2">
+        <f>Table14[[#This Row],[Threads]]*Table14[[#This Row],[Loop Count]]</f>
+        <v>40050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <f>+B12+B13+B14+B15</f>
+        <v>350</v>
+      </c>
+      <c r="C16">
+        <f>+C12+C13+C14+C15</f>
+        <v>141750</v>
+      </c>
       <c r="D16">
-        <v>141750</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="D17">
+        <f t="shared" ref="D16:E16" si="0">+D12+D13+D14+D15</f>
         <v>12600</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="D18">
-        <v>3150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24">
-        <v>87</v>
-      </c>
-      <c r="C24">
-        <v>35235</v>
-      </c>
-      <c r="D24">
-        <v>3132</v>
-      </c>
-      <c r="E24">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25">
-        <v>87</v>
-      </c>
-      <c r="C25">
-        <v>35235</v>
-      </c>
-      <c r="D25">
-        <v>3132</v>
-      </c>
-      <c r="E25">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26">
-        <v>87</v>
-      </c>
-      <c r="C26">
-        <v>35235</v>
-      </c>
-      <c r="D26">
-        <v>3132</v>
-      </c>
-      <c r="E26">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27">
-        <v>89</v>
-      </c>
-      <c r="C27">
-        <v>36045</v>
-      </c>
-      <c r="D27">
-        <v>3204</v>
-      </c>
-      <c r="E27">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <f>+C24+C25+C26+C27</f>
-        <v>141750</v>
-      </c>
-      <c r="D28">
-        <f t="shared" ref="D28:E28" si="0">+D24+D25+D26+D27</f>
-        <v>12600</v>
-      </c>
-      <c r="E28">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>3150</v>
+      </c>
+      <c r="H16">
+        <f>+H12+H13+H14+H15</f>
+        <v>157500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -696,25 +752,251 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C6">
+        <v>216000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="C7">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>54000</v>
+      </c>
+      <c r="D12">
+        <v>4800</v>
+      </c>
+      <c r="E12">
+        <v>1200</v>
+      </c>
+      <c r="F12">
+        <v>12000</v>
+      </c>
+      <c r="G12">
+        <v>450</v>
+      </c>
+      <c r="H12" s="2">
+        <f>Table145[[#This Row],[Threads]]*Table145[[#This Row],[Loop Count]]</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>54000</v>
+      </c>
+      <c r="D13">
+        <v>4800</v>
+      </c>
+      <c r="E13">
+        <v>1200</v>
+      </c>
+      <c r="F13">
+        <v>12000</v>
+      </c>
+      <c r="G13">
+        <v>450</v>
+      </c>
+      <c r="H13" s="2">
+        <f>Table145[[#This Row],[Threads]]*Table145[[#This Row],[Loop Count]]</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>54000</v>
+      </c>
+      <c r="D14">
+        <v>4800</v>
+      </c>
+      <c r="E14">
+        <v>1200</v>
+      </c>
+      <c r="F14">
+        <v>12000</v>
+      </c>
+      <c r="G14">
+        <v>450</v>
+      </c>
+      <c r="H14" s="2">
+        <f>Table145[[#This Row],[Threads]]*Table145[[#This Row],[Loop Count]]</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>54000</v>
+      </c>
+      <c r="D15">
+        <v>4800</v>
+      </c>
+      <c r="E15">
+        <v>1200</v>
+      </c>
+      <c r="F15">
+        <v>12000</v>
+      </c>
+      <c r="G15">
+        <v>450</v>
+      </c>
+      <c r="H15" s="2">
+        <f>Table145[[#This Row],[Threads]]*Table145[[#This Row],[Loop Count]]</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <f>+B12+B13+B14+B15</f>
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <f>+C12+C13+C14+C15</f>
+        <v>216000</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:E16" si="0">+D12+D13+D14+D15</f>
+        <v>19200</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+      <c r="H16">
+        <f>+H12+H13+H14+H15</f>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Projects/BCR/Distribucion de pruebas_BCR.xlsx
+++ b/Projects/BCR/Distribucion de pruebas_BCR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Escenario 1" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>CCD</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>5250tpm x 30min =</t>
-  </si>
-  <si>
-    <t>Nota:</t>
   </si>
   <si>
     <t>Si se envia 1 transaccion por thread, se necesita un loop de 450 para cumplir con la carga esperada</t>
@@ -500,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -576,7 +573,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -736,11 +733,6 @@
       <c r="H16">
         <f>+H12+H13+H14+H15</f>
         <v>157500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -753,10 +745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -987,11 +979,6 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Projects/BCR/Distribucion de pruebas_BCR.xlsx
+++ b/Projects/BCR/Distribucion de pruebas_BCR.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Avantica\Projects\BCR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="Escenario 1" sheetId="2" r:id="rId1"/>
     <sheet name="Escenario 2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>CCD</t>
   </si>
@@ -90,13 +95,46 @@
   </si>
   <si>
     <t>Si se envia 1 transaccion por thread, se necesita un loop de 450 para cumplir con la carga esperada</t>
+  </si>
+  <si>
+    <t>&gt;ok</t>
+  </si>
+  <si>
+    <t>&gt;bad</t>
+  </si>
+  <si>
+    <t>&gt;random</t>
+  </si>
+  <si>
+    <t>CCD ok</t>
+  </si>
+  <si>
+    <t>CCD bad</t>
+  </si>
+  <si>
+    <t>CCD random</t>
+  </si>
+  <si>
+    <t>CDD ok</t>
+  </si>
+  <si>
+    <t>CDD bad</t>
+  </si>
+  <si>
+    <t>CDD random</t>
+  </si>
+  <si>
+    <t>Plantearlo en terminos de Thredgroups as</t>
+  </si>
+  <si>
+    <t>Ramp up -&gt; Definido por uno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,9 +194,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A11:H16" totalsRowCount="1">
-  <autoFilter ref="A11:H16">
-    <filterColumn colId="7"/>
-  </autoFilter>
+  <autoFilter ref="A11:H15"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Transacciones" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Threads" totalsRowFunction="custom">
@@ -186,7 +222,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A11:H16" totalsRowCount="1">
-  <autoFilter ref="A11:H16"/>
+  <autoFilter ref="A11:H15"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Transacciones" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Threads" totalsRowFunction="custom">
@@ -255,7 +291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,9 +323,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,6 +358,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,14 +534,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -515,17 +553,17 @@
     <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -533,7 +571,7 @@
         <v>157500</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -544,7 +582,7 @@
         <v>141750</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -555,7 +593,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -566,17 +604,17 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -602,7 +640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -629,7 +667,7 @@
         <v>39150</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -656,7 +694,7 @@
         <v>39150</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -683,7 +721,7 @@
         <v>39150</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -710,7 +748,7 @@
         <v>40050</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -733,6 +771,83 @@
       <c r="H16">
         <f>+H12+H13+H14+H15</f>
         <v>157500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>78</v>
+      </c>
+      <c r="C19">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <f>E12/B21</f>
+        <v>391.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -744,14 +859,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -763,22 +878,22 @@
     <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -787,7 +902,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -798,7 +913,7 @@
         <v>216000</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -809,7 +924,7 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -820,7 +935,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -846,7 +961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -873,7 +988,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -900,7 +1015,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -927,7 +1042,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -954,7 +1069,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -977,6 +1092,12 @@
       <c r="H16">
         <f>+H12+H13+H14+H15</f>
         <v>240000</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f>F12/B12</f>
+        <v>2400</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/BCR/Distribucion de pruebas_BCR.xlsx
+++ b/Projects/BCR/Distribucion de pruebas_BCR.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>CCD</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Ramp up -&gt; Definido por uno</t>
+  </si>
+  <si>
+    <t>Loop</t>
   </si>
 </sst>
 </file>
@@ -538,7 +541,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,6 +779,12 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
       </c>
       <c r="D18" t="s">
         <v>35</v>
